--- a/Assets/LDTest/Table/EnemySpawnTable.xlsx
+++ b/Assets/LDTest/Table/EnemySpawnTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\졸작_몽퐁듀\ProjectM\Assets\LDTest\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project-M\Assets\LDTest\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B90850-3099-4FC4-BBE4-2147D5A46BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B2571D-C646-45B5-914A-87FBA9140985}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE261DAB-618F-4F79-A346-4E0EC1B6E331}"/>
+    <workbookView xWindow="3330" yWindow="795" windowWidth="17775" windowHeight="14115" xr2:uid="{FE261DAB-618F-4F79-A346-4E0EC1B6E331}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -754,5 +754,6 @@
   <autoFilter ref="A2:E2" xr:uid="{72DA5517-379A-4DB5-AF79-69EE42BD47FB}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/LDTest/Table/EnemySpawnTable.xlsx
+++ b/Assets/LDTest/Table/EnemySpawnTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project-M\Assets\LDTest\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B2571D-C646-45B5-914A-87FBA9140985}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C346F4-4D97-4358-B929-5FE8D629036A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="795" windowWidth="17775" windowHeight="14115" xr2:uid="{FE261DAB-618F-4F79-A346-4E0EC1B6E331}"/>
+    <workbookView xWindow="3450" yWindow="615" windowWidth="17775" windowHeight="14115" xr2:uid="{FE261DAB-618F-4F79-A346-4E0EC1B6E331}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>PattonIndex : Int</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0, 0.6, 5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SpawnGroup : Int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -98,6 +94,26 @@
   </si>
   <si>
     <t>180</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.3, 7.5, -177</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.3, 7.5, -175</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.3, 7.5, -179</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.3, 7.5, -177</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5.3, 7.5, -177</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +510,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -509,7 +525,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -523,10 +539,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -540,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -557,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -574,7 +590,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -591,7 +607,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -608,7 +624,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -625,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -642,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -659,7 +675,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -673,10 +689,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -690,10 +706,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -707,10 +723,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -724,10 +740,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -741,10 +757,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>

--- a/Assets/LDTest/Table/EnemySpawnTable.xlsx
+++ b/Assets/LDTest/Table/EnemySpawnTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project-M\Assets\LDTest\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C346F4-4D97-4358-B929-5FE8D629036A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E99E02A-4521-45BB-9C10-CDD400B75F57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="615" windowWidth="17775" windowHeight="14115" xr2:uid="{FE261DAB-618F-4F79-A346-4E0EC1B6E331}"/>
+    <workbookView xWindow="2205" yWindow="1125" windowWidth="17775" windowHeight="14115" xr2:uid="{FE261DAB-618F-4F79-A346-4E0EC1B6E331}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>PattonIndex : Int</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,30 +50,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Melee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3, 0.6, 5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3, 0.6, 5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4, 0.6, 8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-4, 0.6, 8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SpawnGroup : Int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -89,32 +65,91 @@
     <t>180</t>
   </si>
   <si>
-    <t>180</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3.3, 7.5, -177</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3.3, 7.5, -175</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3.3, 7.5, -179</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1.3, 7.5, -177</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5.3, 7.5, -177</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Melee</t>
+  </si>
+  <si>
+    <t>-3.37, 0.5, -8.85</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>4.95, 0.5, -12.48</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>-13.22, 0.5, -19.94</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-13.39, 0.5, -8.99</t>
+  </si>
+  <si>
+    <t>4.33, 0.5, -5.42</t>
+  </si>
+  <si>
+    <t>-70</t>
+  </si>
+  <si>
+    <t>4.74, 0.4, -19.65</t>
+  </si>
+  <si>
+    <t>-60</t>
+  </si>
+  <si>
+    <t>-5.07, 0.5, -13.13</t>
+  </si>
+  <si>
+    <t>-12.61, 0.5, -5.45</t>
+  </si>
+  <si>
+    <t>-30</t>
+  </si>
+  <si>
+    <t>2.91, 0.5, -5.45</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>-6.68, 3.97, -98.64</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>1.36, 3.97, -93.07</t>
+  </si>
+  <si>
+    <t>-90</t>
+  </si>
+  <si>
+    <t>-7.13, 3.97, -87.48</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>2.91, 3.97, -87.53</t>
+  </si>
+  <si>
+    <t>-1.43, 3.97, -83.55</t>
+  </si>
+  <si>
+    <t>-6.26, 3.97, -88.57</t>
+  </si>
+  <si>
+    <t>-1.43, 3.97, -97.32</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>-1.52, 7.363, -181.96</t>
   </si>
 </sst>
 </file>
@@ -507,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC28FC9-CC19-44A7-9494-CAB6B321ABDA}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -525,7 +560,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -539,10 +574,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -550,13 +585,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -567,13 +602,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -584,13 +619,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -601,13 +636,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -618,16 +653,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -635,13 +670,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -652,13 +687,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -669,13 +704,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -683,19 +718,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -703,13 +738,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -720,13 +755,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -737,13 +772,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -754,16 +789,84 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
